--- a/export_w_co2.xlsx
+++ b/export_w_co2.xlsx
@@ -12,15 +12,17 @@
     <sheet name="result energy in MWh" sheetId="3" r:id="rId3"/>
     <sheet name="co2 emissions timestep in Mt" sheetId="4" r:id="rId4"/>
     <sheet name="elec price in € per MWh_el" sheetId="5" r:id="rId5"/>
-    <sheet name="annual_contribution in €" sheetId="6" r:id="rId6"/>
-    <sheet name="total co2 and annual price" sheetId="7" r:id="rId7"/>
+    <sheet name="stmgc in € per MWh_el" sheetId="6" r:id="rId6"/>
+    <sheet name="annual_contribution in €" sheetId="7" r:id="rId7"/>
+    <sheet name="shadow prices" sheetId="8" r:id="rId8"/>
+    <sheet name="total co2 and annual price" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
   <si>
     <t>Cap</t>
   </si>
@@ -1575,6 +1577,104 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>33.52468341102695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>38.50455106965242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>33.579446025172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>24.59319784331764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>17.44578284917686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>21.72577700248056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>17.84907567839477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>19.46439821719796</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>13.04574227300632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>20.06769118415126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1658,7 +1758,365 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1"/>
+      <c r="B2">
+        <v>66.18918918918919</v>
+      </c>
+      <c r="C2">
+        <v>66.18918918918919</v>
+      </c>
+      <c r="D2">
+        <v>66.18918918918919</v>
+      </c>
+      <c r="E2">
+        <v>60.9333333333333</v>
+      </c>
+      <c r="F2">
+        <v>60.9333333333333</v>
+      </c>
+      <c r="G2">
+        <v>60.9333333333333</v>
+      </c>
+      <c r="H2">
+        <v>44.1666666666667</v>
+      </c>
+      <c r="I2">
+        <v>60.9333333333333</v>
+      </c>
+      <c r="J2">
+        <v>44.1666666666667</v>
+      </c>
+      <c r="K2">
+        <v>44.1666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>-64.7891891891892</v>
+      </c>
+      <c r="C4">
+        <v>-64.7891891891892</v>
+      </c>
+      <c r="D4">
+        <v>-64.7891891891892</v>
+      </c>
+      <c r="E4">
+        <v>-59.5333333333333</v>
+      </c>
+      <c r="F4">
+        <v>-59.5333333333333</v>
+      </c>
+      <c r="G4">
+        <v>-59.5333333333333</v>
+      </c>
+      <c r="H4">
+        <v>-42.7666666666667</v>
+      </c>
+      <c r="I4">
+        <v>-59.5333333333333</v>
+      </c>
+      <c r="J4">
+        <v>-42.7666666666667</v>
+      </c>
+      <c r="K4">
+        <v>-42.7666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>-60.0346437346437</v>
+      </c>
+      <c r="C5">
+        <v>-60.0346437346437</v>
+      </c>
+      <c r="D5">
+        <v>-60.0346437346437</v>
+      </c>
+      <c r="E5">
+        <v>-54.7787878787879</v>
+      </c>
+      <c r="F5">
+        <v>-54.7787878787879</v>
+      </c>
+      <c r="G5">
+        <v>-54.7787878787879</v>
+      </c>
+      <c r="H5">
+        <v>-38.0121212121212</v>
+      </c>
+      <c r="I5">
+        <v>-54.7787878787879</v>
+      </c>
+      <c r="J5">
+        <v>-38.0121212121212</v>
+      </c>
+      <c r="K5">
+        <v>-38.0121212121212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>-5.25585585585585</v>
+      </c>
+      <c r="C6">
+        <v>-5.25585585585585</v>
+      </c>
+      <c r="D6">
+        <v>-5.25585585585585</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>-64.68918918918919</v>
+      </c>
+      <c r="C7">
+        <v>-64.68918918918919</v>
+      </c>
+      <c r="D7">
+        <v>-64.68918918918919</v>
+      </c>
+      <c r="E7">
+        <v>-59.4333333333333</v>
+      </c>
+      <c r="F7">
+        <v>-59.4333333333333</v>
+      </c>
+      <c r="G7">
+        <v>-59.4333333333333</v>
+      </c>
+      <c r="H7">
+        <v>-42.6666666666667</v>
+      </c>
+      <c r="I7">
+        <v>-59.4333333333333</v>
+      </c>
+      <c r="J7">
+        <v>-42.6666666666667</v>
+      </c>
+      <c r="K7">
+        <v>-42.6666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>-65.18918918918919</v>
+      </c>
+      <c r="C9">
+        <v>-65.18918918918919</v>
+      </c>
+      <c r="D9">
+        <v>-65.18918918918919</v>
+      </c>
+      <c r="E9">
+        <v>-59.9333333333333</v>
+      </c>
+      <c r="F9">
+        <v>-59.9333333333333</v>
+      </c>
+      <c r="G9">
+        <v>-59.9333333333333</v>
+      </c>
+      <c r="H9">
+        <v>-43.1666666666667</v>
+      </c>
+      <c r="I9">
+        <v>-59.9333333333333</v>
+      </c>
+      <c r="J9">
+        <v>-43.1666666666667</v>
+      </c>
+      <c r="K9">
+        <v>-43.1666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-22.0225225225225</v>
+      </c>
+      <c r="C10">
+        <v>-22.0225225225225</v>
+      </c>
+      <c r="D10">
+        <v>-22.0225225225225</v>
+      </c>
+      <c r="E10">
+        <v>-16.7666666666667</v>
+      </c>
+      <c r="F10">
+        <v>-16.7666666666667</v>
+      </c>
+      <c r="G10">
+        <v>-16.7666666666667</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>-16.7666666666667</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
